--- a/va_facility_data_2025-02-20/Royal C. Johnson Veterans' Memorial Hospital - Facility Data.xlsx"; filename*=UTF-8''Royal%20C.%20Johnson%20Veterans%27%20Memorial%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Royal C. Johnson Veterans' Memorial Hospital - Facility Data.xlsx"; filename*=UTF-8''Royal%20C.%20Johnson%20Veterans%27%20Memorial%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R12aa22976fbe459b8827453431fb7f72"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1ee43dd1ac8a4f8e83c876a1404a382e"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R63fb7b4a6e064e5785c4b6ac2ea4e354"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd65618addab240d7818ab8921128f3af"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R63819f89cbee4829b1ed3a1bfe4db3f7"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Refd7052160c648bbbddd40a7734f25c0"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf16200c53ae846ed946882560c82300e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R848b098dadbf4d1d8efbf3b2beb97477"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8417d2c7466248cbb3afa6e975b77938"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R016f84f3b45c4b29bf76d7e21c90c906"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R8973a11607b14d26841d67a0d76ced08"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb6daf666efb34358a0159965c094cb0e"/>
   </x:sheets>
 </x:workbook>
 </file>
